--- a/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>f3fb7b40-d169-4446-b406-f5be56c3b6d8</t>
+    <t>78d24d39-537a-49c1-af21-12cfad693c8b</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>78d24d39-537a-49c1-af21-12cfad693c8b</t>
+    <t>3e6d0642-38e1-47f4-a1e5-9c4824ae0777</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>3e6d0642-38e1-47f4-a1e5-9c4824ae0777</t>
+    <t>51d346ae-9788-4ae3-94c8-03ed4c0bfd77</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>51d346ae-9788-4ae3-94c8-03ed4c0bfd77</t>
+    <t>4908c668-3b02-40d3-8929-34164a586af4</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>4908c668-3b02-40d3-8929-34164a586af4</t>
+    <t>445ec9b9-1fce-4148-934c-b74d20283d28</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>445ec9b9-1fce-4148-934c-b74d20283d28</t>
+    <t>5d15c433-b57d-47f9-86a5-16c8a6d90f94</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>
